--- a/rhla_analysis/rhla1_6_normal_result/k5.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k5.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009407601700181168</v>
+        <v>0.00940760170018117</v>
       </c>
       <c r="B2" t="n">
         <v>0.3247460564802847</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01112711749833471</v>
+        <v>0.01112711749833467</v>
       </c>
       <c r="B3" t="n">
         <v>0.2830931569832424</v>
@@ -480,12 +480,12 @@
         <v>0.1571622539035981</v>
       </c>
       <c r="D3" t="n">
-        <v>25.44173340720185</v>
+        <v>25.44173340720192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006313891644733037</v>
+        <v>0.006313891644733049</v>
       </c>
       <c r="B4" t="n">
         <v>0.2780682269624247</v>
@@ -494,12 +494,12 @@
         <v>0.1537678207739308</v>
       </c>
       <c r="D4" t="n">
-        <v>44.04070304158379</v>
+        <v>44.0407030415837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00576265983330867</v>
+        <v>0.005762659833308635</v>
       </c>
       <c r="B5" t="n">
         <v>0.3088034472898959</v>
@@ -508,12 +508,12 @@
         <v>0.1323828920570265</v>
       </c>
       <c r="D5" t="n">
-        <v>53.58696439185694</v>
+        <v>53.58696439185726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008310026980400139</v>
+        <v>0.008310026980400129</v>
       </c>
       <c r="B6" t="n">
         <v>0.3011717017226618</v>
@@ -522,12 +522,12 @@
         <v>0.1211812627291242</v>
       </c>
       <c r="D6" t="n">
-        <v>36.24196436822639</v>
+        <v>36.24196436822643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01399536541372939</v>
+        <v>0.01399536541372944</v>
       </c>
       <c r="B7" t="n">
         <v>0.2876238160235871</v>
@@ -536,12 +536,12 @@
         <v>0.1255940257976918</v>
       </c>
       <c r="D7" t="n">
-        <v>20.55136164872332</v>
+        <v>20.55136164872326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01195891957586743</v>
+        <v>0.01195891957586747</v>
       </c>
       <c r="B8" t="n">
         <v>0.2632066047603889</v>
@@ -550,12 +550,12 @@
         <v>0.1279701289884589</v>
       </c>
       <c r="D8" t="n">
-        <v>22.00922943670665</v>
+        <v>22.00922943670658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01383683868865494</v>
+        <v>0.01383683868865491</v>
       </c>
       <c r="B9" t="n">
         <v>0.291105877980986</v>
@@ -564,12 +564,12 @@
         <v>0.1350984385607603</v>
       </c>
       <c r="D9" t="n">
-        <v>21.03846727791</v>
+        <v>21.03846727791004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.006094347145144269</v>
+        <v>0.006094347145144238</v>
       </c>
       <c r="B10" t="n">
         <v>0.2864055951518097</v>
@@ -578,12 +578,12 @@
         <v>0.1354378818737271</v>
       </c>
       <c r="D10" t="n">
-        <v>46.9952873262243</v>
+        <v>46.99528732622453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008939753431905279</v>
+        <v>0.008939753431905308</v>
       </c>
       <c r="B11" t="n">
         <v>0.2953900396743608</v>
@@ -592,7 +592,7 @@
         <v>0.1374745417515275</v>
       </c>
       <c r="D11" t="n">
-        <v>33.04230277986605</v>
+        <v>33.04230277986594</v>
       </c>
     </row>
   </sheetData>
